--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjh\CodeSpace\paper\FirstPaper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4A656-60F2-4D6F-8AE9-19C21F6733B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315003C-41B3-479F-B268-DB4322CD963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{860F6B3E-3C53-4C55-9E10-7DE2A6733AD1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>Platfrom</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Sum of LUT</t>
+  </si>
+  <si>
+    <t>Sum of Slices</t>
+  </si>
+  <si>
+    <t>Sum of FMAX(MHz)</t>
+  </si>
+  <si>
+    <t>Sum of E/bit(nJ/bit)</t>
   </si>
 </sst>
 </file>
@@ -303,19 +312,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -371,19 +368,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -439,19 +424,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1172,19 +1145,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1240,19 +1201,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1308,19 +1257,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2010,6 +1947,2621 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="25"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$3:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Q$5:$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$5:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA3F-4304-8A64-8A52172BBBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$S$3:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Q$5:$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$5:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA3F-4304-8A64-8A52172BBBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$T$3:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Q$5:$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$T$5:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA3F-4304-8A64-8A52172BBBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1945808639"/>
+        <c:axId val="1431672991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1945808639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431672991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1431672991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>rea(Slices)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1945808639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data.xlsx]Sheet2!PivotTable5</c:name>
+    <c:fmtId val="33"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Z$3:$Z$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Y$5:$Y$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Z$5:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>557.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>853.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C677-420C-84AD-169696D21077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AA$3:$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Y$5:$Y$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AA$5:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>142.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.86000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C677-420C-84AD-169696D21077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AB$3:$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$Y$5:$Y$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AB$5:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296.29000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C677-420C-84AD-169696D21077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1403706207"/>
+        <c:axId val="1405165487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1403706207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405165487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405165487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Max Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403706207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data.xlsx]Sheet2!PivotTable6</c:name>
+    <c:fmtId val="37"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AG$3:$AG$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AF$5:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AG$5:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0612-4B55-922B-38DBAB33AE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AH$3:$AH$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AF$5:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AH$5:$AH$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0612-4B55-922B-38DBAB33AE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AI$3:$AI$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AF$5:$AF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Artix-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kintex-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spartan-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AI$5:$AI$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0612-4B55-922B-38DBAB33AE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1402352623"/>
+        <c:axId val="1405174415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1402352623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405174415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405174415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Energy per bit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402352623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2090,6 +4642,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2594,6 +5266,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3165,6 +7346,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A9EA9B-5398-1A83-271A-C009232F5CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B4B793-2525-B3CE-F720-8F4BB8A92259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A475EBBD-690A-3C98-C399-5A312667ED5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3426,8 +7715,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
-  <location ref="I3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01B54B2C-2537-4BF7-8DD4-1ECA620CC507}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+  <location ref="AF3:AJ8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="4">
@@ -3448,8 +7737,254 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of E/bit(nJ/bit)" fld="16" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="37" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="37" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="37" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24BD12C7-DDED-40ED-86AA-D40CC005CAB8}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+  <location ref="Y3:AC8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of FMAX(MHz)" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="33" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB4B1C3A-7D45-4C95-95DD-3DEF74A544E4}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+  <location ref="Q3:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3496,10 +8031,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of LUT" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Slices" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="18" format="0" series="1">
+  <chartFormats count="3">
+    <chartFormat chart="25" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3511,7 +8046,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="18" format="1" series="1">
+    <chartFormat chart="25" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3523,43 +8058,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="18" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="2" series="1">
+    <chartFormat chart="25" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3584,8 +8083,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3764,6 +8263,165 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="I3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of LUT" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4085,26 +8743,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9161C4F-E5D1-43DD-B9BE-27479AD997BE}">
-  <dimension ref="A3:M8"/>
+  <dimension ref="A3:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -4117,8 +8787,26 @@
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -4149,138 +8837,363 @@
       <c r="M4" t="s">
         <v>24</v>
       </c>
+      <c r="Q4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>144</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>157</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>201</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>502</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>177</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>378</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>243</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5">
         <v>798</v>
       </c>
+      <c r="Q5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="5">
+        <v>59</v>
+      </c>
+      <c r="S5" s="5">
+        <v>111</v>
+      </c>
+      <c r="T5" s="5">
+        <v>70</v>
+      </c>
+      <c r="U5" s="5">
+        <v>240</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>557.41</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>142.38</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>274.04000000000002</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>973.82999999999993</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>26.77</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>27.85</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>144</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>157</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>201</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>502</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>178</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>377</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>244</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6">
         <v>799</v>
       </c>
+      <c r="Q6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5">
+        <v>58</v>
+      </c>
+      <c r="S6" s="5">
+        <v>115</v>
+      </c>
+      <c r="T6" s="5">
+        <v>68</v>
+      </c>
+      <c r="U6" s="5">
+        <v>241</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>853.97</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>175.25</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>357.78</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1387</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>27.91</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>29.029999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>144</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>157</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>201</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>502</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>177</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>381</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>244</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7">
         <v>802</v>
       </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="5">
+        <v>57</v>
+      </c>
+      <c r="S7" s="5">
+        <v>118</v>
+      </c>
+      <c r="T7" s="5">
+        <v>70</v>
+      </c>
+      <c r="U7" s="5">
+        <v>245</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>525.76</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>138.86000000000001</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>296.29000000000002</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>960.91000000000008</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>26.96</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>28.05</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>432</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>471</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>603</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>1506</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>532</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>1136</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>731</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8">
         <v>2399</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="5">
+        <v>174</v>
+      </c>
+      <c r="S8" s="5">
+        <v>344</v>
+      </c>
+      <c r="T8" s="5">
+        <v>208</v>
+      </c>
+      <c r="U8" s="5">
+        <v>726</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1937.14</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>456.49</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>928.1099999999999</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>3321.74</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>81.64</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>84.929999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjh\CodeSpace\paper\FirstPaper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\Codespace\latex\FirstPaper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B315003C-41B3-479F-B268-DB4322CD963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A244F-220D-48F8-9BEA-866BA1733C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{860F6B3E-3C53-4C55-9E10-7DE2A6733AD1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="24" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,19 +96,10 @@
     <t>Artix-7</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Spartan-7</t>
   </si>
   <si>
     <t>Kintex-7</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>Sum of E/bit(nJ/bit)</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>IA</t>
   </si>
 </sst>
 </file>
@@ -287,8 +287,49 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -484,7 +525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -606,7 +647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A2</c:v>
+                  <c:v>UA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -728,7 +769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A3</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1301,6 +1342,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1317,7 +1526,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1439,7 +1648,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A2</c:v>
+                  <c:v>UA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1561,7 +1770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A3</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1979,19 +2188,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2047,19 +2244,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2115,19 +2300,175 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2187,7 +2528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2309,7 +2650,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A2</c:v>
+                  <c:v>UA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2431,7 +2772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A3</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2854,19 +3195,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2922,19 +3251,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2990,19 +3307,175 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3062,7 +3535,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3184,7 +3657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A2</c:v>
+                  <c:v>UA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3306,7 +3779,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A3</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3724,19 +4197,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3792,19 +4253,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3860,19 +4309,175 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3932,7 +4537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A1</c:v>
+                  <c:v>SA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4054,7 +4659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A2</c:v>
+                  <c:v>UA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4176,7 +4781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A3</c:v>
+                  <c:v>IA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7463,7 +8068,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="xjh" refreshedDate="45266.653087847226" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F959C95-6E84-4C9F-9A06-DFD27FC6536F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="xjh" refreshedDate="45285.839319444443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F959C95-6E84-4C9F-9A06-DFD27FC6536F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q10" sheet="Sheet1"/>
   </cacheSource>
@@ -7476,16 +8081,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Design" numFmtId="0">
-      <sharedItems count="3">
-        <s v="A1"/>
-        <s v="A2"/>
-        <s v="A3"/>
+      <sharedItems count="6">
+        <s v="SA"/>
+        <s v="UA"/>
+        <s v="IA"/>
+        <s v="A1" u="1"/>
+        <s v="A2" u="1"/>
+        <s v="A3" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="State(bit)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="64" maxValue="64" count="1">
-        <n v="64"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="64" maxValue="64"/>
     </cacheField>
     <cacheField name="Key(bit)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="128"/>
@@ -7543,7 +8149,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="144"/>
     <n v="177"/>
@@ -7562,7 +8168,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="144"/>
     <n v="177"/>
@@ -7581,7 +8187,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="144"/>
     <n v="178"/>
@@ -7600,7 +8206,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="157"/>
     <n v="381"/>
@@ -7619,7 +8225,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="157"/>
     <n v="378"/>
@@ -7638,7 +8244,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="157"/>
     <n v="377"/>
@@ -7657,7 +8263,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="201"/>
     <n v="244"/>
@@ -7676,7 +8282,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="201"/>
     <n v="244"/>
@@ -7695,7 +8301,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
+    <n v="64"/>
     <n v="128"/>
     <n v="201"/>
     <n v="243"/>
@@ -7715,7 +8321,205 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01B54B2C-2537-4BF7-8DD4-1ECA620CC507}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="I3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of LUT" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01B54B2C-2537-4BF7-8DD4-1ECA620CC507}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="AF3:AJ8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -7727,7 +8531,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="7">
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7772,13 +8579,13 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7787,7 +8594,7 @@
   <dataFields count="1">
     <dataField name="Sum of E/bit(nJ/bit)" fld="16" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="37" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -7824,6 +8631,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="37" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="37" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="37" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7837,8 +8680,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24BD12C7-DDED-40ED-86AA-D40CC005CAB8}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24BD12C7-DDED-40ED-86AA-D40CC005CAB8}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="Y3:AC8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -7850,7 +8693,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="7">
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7895,13 +8741,13 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -7910,7 +8756,7 @@
   <dataFields count="1">
     <dataField name="Sum of FMAX(MHz)" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="33" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -7947,6 +8793,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="33" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="33" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7960,8 +8842,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB4B1C3A-7D45-4C95-95DD-3DEF74A544E4}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB4B1C3A-7D45-4C95-95DD-3DEF74A544E4}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="Q3:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -7973,7 +8855,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="7">
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8018,13 +8903,13 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -8033,7 +8918,7 @@
   <dataFields count="1">
     <dataField name="Sum of Slices" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="25" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -8070,6 +8955,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="25" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8083,8 +9004,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8096,7 +9017,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="7">
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8141,13 +9065,13 @@
   </colFields>
   <colItems count="4">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -8263,165 +9187,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="I3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of LUT" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="18" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8746,20 +9511,20 @@
   <dimension ref="A3:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
@@ -8776,142 +9541,142 @@
   <sheetData>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="AG3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>24</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>21</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>144</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>157</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>201</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>502</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>177</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>378</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>243</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>798</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -8962,37 +9727,37 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
         <v>144</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>157</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>201</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>502</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5">
         <v>178</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>377</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>244</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>799</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" s="5">
         <v>58</v>
@@ -9007,7 +9772,7 @@
         <v>241</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="5">
         <v>853.97</v>
@@ -9022,7 +9787,7 @@
         <v>1387</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG6" s="5">
         <v>27.91</v>
@@ -9039,37 +9804,37 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
         <v>144</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>157</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>201</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>502</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5">
         <v>177</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>381</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>244</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>802</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="5">
         <v>57</v>
@@ -9084,7 +9849,7 @@
         <v>245</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="5">
         <v>525.76</v>
@@ -9099,7 +9864,7 @@
         <v>960.91000000000008</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG7" s="5">
         <v>26.96</v>
@@ -9116,37 +9881,37 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
         <v>432</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>471</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>603</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>1506</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8">
+        <v>21</v>
+      </c>
+      <c r="J8" s="5">
         <v>532</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>1136</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>731</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>2399</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R8" s="5">
         <v>174</v>
@@ -9161,7 +9926,7 @@
         <v>726</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z8" s="5">
         <v>1937.14</v>
@@ -9176,7 +9941,7 @@
         <v>3321.74</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG8" s="5">
         <v>81.64</v>
@@ -9202,7 +9967,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9265,7 +10030,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>64</v>
@@ -9315,10 +10080,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>64</v>
@@ -9368,10 +10133,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>64</v>
@@ -9421,10 +10186,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>64</v>
@@ -9477,7 +10242,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>64</v>
@@ -9527,10 +10292,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>64</v>
@@ -9580,10 +10345,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>64</v>
@@ -9633,10 +10398,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>64</v>
@@ -9689,7 +10454,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>64</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\Codespace\latex\FirstPaper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\xjh\tex\FirstPaper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A244F-220D-48F8-9BEA-866BA1733C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813F2DF-CD0C-4D20-84F5-7A5979970A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{860F6B3E-3C53-4C55-9E10-7DE2A6733AD1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -102,15 +102,6 @@
     <t>Kintex-7</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Sum of FF</t>
   </si>
   <si>
@@ -134,24 +125,47 @@
   <si>
     <t>IA</t>
   </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,10 +216,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +243,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -327,7 +347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -383,7 +403,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -439,7 +459,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -495,7 +515,119 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -567,7 +699,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -689,7 +821,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -811,7 +943,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -865,13 +997,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>201</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +1068,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1562430319"/>
@@ -1018,7 +1150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1050,7 +1182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1567960799"/>
@@ -1092,7 +1224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1129,7 +1261,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1157,7 +1289,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1216,7 +1348,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1272,7 +1404,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1328,7 +1460,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1384,7 +1516,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1440,7 +1572,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1496,7 +1628,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1568,7 +1700,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1690,7 +1822,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1812,7 +1944,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1866,13 +1998,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>243</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +2069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="203955087"/>
@@ -2019,7 +2151,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2051,7 +2183,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="188364111"/>
@@ -2093,7 +2225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2130,7 +2262,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2159,7 +2291,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2218,7 +2350,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2274,7 +2406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2330,7 +2462,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2386,7 +2518,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2442,7 +2574,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2498,7 +2630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2570,7 +2702,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2692,7 +2824,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2814,7 +2946,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2868,13 +3000,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,7 +3071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1431672991"/>
@@ -3026,7 +3158,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3058,7 +3190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1945808639"/>
@@ -3100,7 +3232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3137,7 +3269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3166,7 +3298,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3225,7 +3357,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3281,7 +3413,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3337,7 +3469,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3393,7 +3525,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3449,7 +3581,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3505,7 +3637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3577,7 +3709,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3699,7 +3831,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3821,7 +3953,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3875,13 +4007,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>274.04000000000002</c:v>
+                  <c:v>202.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>357.78</c:v>
+                  <c:v>301.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296.29000000000002</c:v>
+                  <c:v>186.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,7 +4078,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1405165487"/>
@@ -4028,7 +4160,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4060,7 +4192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1403706207"/>
@@ -4102,7 +4234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4139,7 +4271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4168,7 +4300,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4227,7 +4359,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4283,7 +4415,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4339,7 +4471,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4395,7 +4527,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4451,7 +4583,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4507,7 +4639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4579,7 +4711,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4701,7 +4833,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4823,7 +4955,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4948,7 +5080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1405174415"/>
@@ -5030,7 +5162,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5062,7 +5194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1402352623"/>
@@ -5104,7 +5236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5141,7 +5273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8068,7 +8200,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="xjh" refreshedDate="45285.839319444443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F959C95-6E84-4C9F-9A06-DFD27FC6536F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="向嘉豪" refreshedDate="45340.432043981484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{2F959C95-6E84-4C9F-9A06-DFD27FC6536F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q10" sheet="Sheet1"/>
   </cacheSource>
@@ -8097,7 +8229,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="128"/>
     </cacheField>
     <cacheField name="FF" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="144" maxValue="201"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="144" maxValue="159"/>
     </cacheField>
     <cacheField name="LUT" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="177" maxValue="381"/>
@@ -8112,13 +8244,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="138.86000000000001" maxValue="853.97"/>
     </cacheField>
     <cacheField name="Thr(Mbps)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.69" maxValue="715.56"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.69" maxValue="701"/>
     </cacheField>
     <cacheField name="Thr*(Mbps)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.27" maxValue="400"/>
     </cacheField>
     <cacheField name="Thr/Slices(Kbps/Slices)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="485.87" maxValue="10522.94"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="485.87" maxValue="9132.73"/>
     </cacheField>
     <cacheField name="DP(mW)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8"/>
@@ -8265,14 +8397,14 @@
     <x v="2"/>
     <n v="64"/>
     <n v="128"/>
-    <n v="201"/>
-    <n v="244"/>
-    <n v="68"/>
+    <n v="159"/>
+    <n v="205"/>
+    <n v="66"/>
     <n v="32"/>
-    <n v="357.78"/>
-    <n v="715.56"/>
+    <n v="301.38"/>
+    <n v="602.76"/>
     <n v="200"/>
-    <n v="10522.94"/>
+    <n v="9132.73"/>
     <n v="3"/>
     <n v="145"/>
     <n v="148"/>
@@ -8284,14 +8416,14 @@
     <x v="2"/>
     <n v="64"/>
     <n v="128"/>
-    <n v="201"/>
-    <n v="244"/>
-    <n v="70"/>
+    <n v="158"/>
+    <n v="200"/>
+    <n v="64"/>
     <n v="32"/>
-    <n v="296.29000000000002"/>
-    <n v="592.58000000000004"/>
+    <n v="186.98"/>
+    <n v="373.96"/>
     <n v="200"/>
-    <n v="8465.43"/>
+    <n v="5843.13"/>
     <n v="3"/>
     <n v="140"/>
     <n v="143"/>
@@ -8303,17 +8435,17 @@
     <x v="2"/>
     <n v="64"/>
     <n v="128"/>
+    <n v="159"/>
     <n v="201"/>
-    <n v="243"/>
-    <n v="70"/>
+    <n v="65"/>
     <n v="32"/>
-    <n v="274.04000000000002"/>
-    <n v="548.08000000000004"/>
+    <n v="202.63"/>
+    <n v="405.26"/>
     <n v="200"/>
-    <n v="7829.71"/>
-    <n v="2"/>
+    <n v="6234.77"/>
+    <n v="3"/>
     <n v="139"/>
-    <n v="141"/>
+    <n v="142"/>
     <n v="0.05"/>
     <n v="0.71"/>
   </r>
@@ -8321,7 +8453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B420591-DCF4-4616-91B3-3FB6A70418D4}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="I3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8519,7 +8651,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01B54B2C-2537-4BF7-8DD4-1ECA620CC507}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01B54B2C-2537-4BF7-8DD4-1ECA620CC507}" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="AF3:AJ8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8681,7 +8813,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24BD12C7-DDED-40ED-86AA-D40CC005CAB8}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24BD12C7-DDED-40ED-86AA-D40CC005CAB8}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="Y3:AC8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8843,7 +8975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB4B1C3A-7D45-4C95-95DD-3DEF74A544E4}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB4B1C3A-7D45-4C95-95DD-3DEF74A544E4}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="Q3:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -9005,7 +9137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9A6251-2391-4703-8708-B5952C51AD25}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -9080,7 +9212,7 @@
   <dataFields count="1">
     <dataField name="Sum of FF" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -9198,6 +9330,30 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9212,9 +9368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9252,7 +9408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9358,7 +9514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9500,7 +9656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9510,455 +9666,458 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9161C4F-E5D1-43DD-B9BE-27479AD997BE}">
   <dimension ref="A3:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF36" sqref="AF36"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF3" s="3" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>22</v>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>144</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>157</v>
       </c>
-      <c r="D5" s="5">
-        <v>201</v>
-      </c>
-      <c r="E5" s="5">
-        <v>502</v>
+      <c r="D5" s="7">
+        <v>159</v>
+      </c>
+      <c r="E5" s="7">
+        <v>460</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <v>177</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <v>378</v>
       </c>
-      <c r="L5" s="5">
-        <v>243</v>
-      </c>
-      <c r="M5" s="5">
-        <v>798</v>
+      <c r="L5" s="7">
+        <v>201</v>
+      </c>
+      <c r="M5" s="7">
+        <v>756</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="7">
         <v>59</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="7">
         <v>111</v>
       </c>
-      <c r="T5" s="5">
-        <v>70</v>
-      </c>
-      <c r="U5" s="5">
-        <v>240</v>
+      <c r="T5" s="7">
+        <v>65</v>
+      </c>
+      <c r="U5" s="7">
+        <v>235</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="7">
         <v>557.41</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="7">
         <v>142.38</v>
       </c>
-      <c r="AB5" s="5">
-        <v>274.04000000000002</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>973.82999999999993</v>
+      <c r="AB5" s="7">
+        <v>202.63</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>902.42</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="7">
         <v>26.77</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="7">
         <v>0.37</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="7">
         <v>0.71</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="7">
         <v>27.85</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>144</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>157</v>
       </c>
-      <c r="D6" s="5">
-        <v>201</v>
-      </c>
-      <c r="E6" s="5">
-        <v>502</v>
+      <c r="D6" s="7">
+        <v>159</v>
+      </c>
+      <c r="E6" s="7">
+        <v>460</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>178</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>377</v>
       </c>
-      <c r="L6" s="5">
-        <v>244</v>
-      </c>
-      <c r="M6" s="5">
-        <v>799</v>
+      <c r="L6" s="7">
+        <v>205</v>
+      </c>
+      <c r="M6" s="7">
+        <v>760</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="7">
         <v>58</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="7">
         <v>115</v>
       </c>
-      <c r="T6" s="5">
-        <v>68</v>
-      </c>
-      <c r="U6" s="5">
-        <v>241</v>
+      <c r="T6" s="7">
+        <v>66</v>
+      </c>
+      <c r="U6" s="7">
+        <v>239</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="7">
         <v>853.97</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="7">
         <v>175.25</v>
       </c>
-      <c r="AB6" s="5">
-        <v>357.78</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>1387</v>
+      <c r="AB6" s="7">
+        <v>301.38</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1330.6</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="7">
         <v>27.91</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="7">
         <v>0.38</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="7">
         <v>0.74</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="7">
         <v>29.029999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>144</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>157</v>
       </c>
-      <c r="D7" s="5">
-        <v>201</v>
-      </c>
-      <c r="E7" s="5">
-        <v>502</v>
+      <c r="D7" s="7">
+        <v>158</v>
+      </c>
+      <c r="E7" s="7">
+        <v>459</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>177</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>381</v>
       </c>
-      <c r="L7" s="5">
-        <v>244</v>
-      </c>
-      <c r="M7" s="5">
-        <v>802</v>
+      <c r="L7" s="7">
+        <v>200</v>
+      </c>
+      <c r="M7" s="7">
+        <v>758</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="7">
         <v>57</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="7">
         <v>118</v>
       </c>
-      <c r="T7" s="5">
-        <v>70</v>
-      </c>
-      <c r="U7" s="5">
-        <v>245</v>
+      <c r="T7" s="7">
+        <v>64</v>
+      </c>
+      <c r="U7" s="7">
+        <v>239</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="7">
         <v>525.76</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="7">
         <v>138.86000000000001</v>
       </c>
-      <c r="AB7" s="5">
-        <v>296.29000000000002</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>960.91000000000008</v>
+      <c r="AB7" s="7">
+        <v>186.98</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>851.6</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="7">
         <v>26.96</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="7">
         <v>0.37</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="7">
         <v>0.72</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="7">
         <v>28.05</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7">
         <v>432</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>471</v>
       </c>
-      <c r="D8" s="5">
-        <v>603</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1506</v>
+      <c r="D8" s="7">
+        <v>476</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1379</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7">
         <v>532</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <v>1136</v>
       </c>
-      <c r="L8" s="5">
-        <v>731</v>
-      </c>
-      <c r="M8" s="5">
-        <v>2399</v>
+      <c r="L8" s="7">
+        <v>606</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2274</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="5">
+        <v>30</v>
+      </c>
+      <c r="R8" s="7">
         <v>174</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="7">
         <v>344</v>
       </c>
-      <c r="T8" s="5">
-        <v>208</v>
-      </c>
-      <c r="U8" s="5">
-        <v>726</v>
+      <c r="T8" s="7">
+        <v>195</v>
+      </c>
+      <c r="U8" s="7">
+        <v>713</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="5">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="7">
         <v>1937.14</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="7">
         <v>456.49</v>
       </c>
-      <c r="AB8" s="5">
-        <v>928.1099999999999</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>3321.74</v>
+      <c r="AB8" s="7">
+        <v>690.99</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>3084.62</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG8" s="5">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="7">
         <v>81.64</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="7">
         <v>2.17</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AJ8" s="7">
         <v>84.929999999999993</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -9967,12 +10126,12 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10025,12 +10184,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>64</v>
@@ -10078,12 +10237,12 @@
         <v>26.77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>64</v>
@@ -10131,12 +10290,12 @@
         <v>26.96</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>64</v>
@@ -10184,12 +10343,12 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>64</v>
@@ -10237,12 +10396,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>64</v>
@@ -10290,12 +10449,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>64</v>
@@ -10343,166 +10502,168 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
         <v>64</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>128</v>
       </c>
-      <c r="E8" s="1">
-        <v>201</v>
-      </c>
-      <c r="F8" s="1">
-        <v>244</v>
-      </c>
-      <c r="G8" s="1">
-        <v>68</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="5">
+        <v>159</v>
+      </c>
+      <c r="F8" s="5">
+        <v>205</v>
+      </c>
+      <c r="G8" s="5">
+        <v>66</v>
+      </c>
+      <c r="H8" s="5">
         <v>32</v>
       </c>
-      <c r="I8" s="1">
-        <v>357.78</v>
-      </c>
-      <c r="J8" s="1">
-        <v>715.56</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="I8" s="5">
+        <v>301.38</v>
+      </c>
+      <c r="J8" s="5">
+        <v>602.76</v>
+      </c>
+      <c r="K8" s="5">
         <v>200</v>
       </c>
-      <c r="L8" s="2">
-        <v>10522.94</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L8" s="6">
+        <v>9132.73</v>
+      </c>
+      <c r="M8" s="5">
         <v>3</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="5">
         <v>145</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="5">
         <v>148</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="5">
         <v>0.05</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="5">
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
         <v>64</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>128</v>
       </c>
-      <c r="E9" s="1">
-        <v>201</v>
-      </c>
-      <c r="F9" s="1">
-        <v>244</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="E9" s="5">
+        <v>158</v>
+      </c>
+      <c r="F9" s="5">
+        <v>200</v>
+      </c>
+      <c r="G9" s="5">
+        <v>64</v>
+      </c>
+      <c r="H9" s="5">
         <v>32</v>
       </c>
-      <c r="I9" s="1">
-        <v>296.29000000000002</v>
-      </c>
-      <c r="J9" s="1">
-        <v>592.58000000000004</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="I9" s="5">
+        <v>186.98</v>
+      </c>
+      <c r="J9" s="5">
+        <v>373.96</v>
+      </c>
+      <c r="K9" s="5">
         <v>200</v>
       </c>
-      <c r="L9" s="2">
-        <v>8465.43</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="6">
+        <v>5843.13</v>
+      </c>
+      <c r="M9" s="5">
         <v>3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="5">
         <v>140</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="5">
         <v>143</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="5">
         <v>0.05</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="5">
         <v>0.72</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
         <v>64</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>128</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
+        <v>159</v>
+      </c>
+      <c r="F10" s="5">
         <v>201</v>
       </c>
-      <c r="F10" s="1">
-        <v>243</v>
-      </c>
-      <c r="G10" s="1">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="5">
+        <v>65</v>
+      </c>
+      <c r="H10" s="5">
         <v>32</v>
       </c>
-      <c r="I10" s="1">
-        <v>274.04000000000002</v>
-      </c>
-      <c r="J10" s="1">
-        <v>548.08000000000004</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="I10" s="5">
+        <v>202.63</v>
+      </c>
+      <c r="J10" s="5">
+        <v>405.26</v>
+      </c>
+      <c r="K10" s="5">
         <v>200</v>
       </c>
-      <c r="L10" s="2">
-        <v>7829.71</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="L10" s="6">
+        <v>6234.77</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
         <v>139</v>
       </c>
-      <c r="O10" s="1">
-        <v>141</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="O10" s="5">
+        <v>142</v>
+      </c>
+      <c r="P10" s="5">
         <v>0.05</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="5">
         <v>0.71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>